--- a/biology/Zoologie/Cochenille_blanche/Cochenille_blanche.xlsx
+++ b/biology/Zoologie/Cochenille_blanche/Cochenille_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudococcus cryptus
 La cochenille blanche (Pseudococcus cryptus) est une espèce d'insectes hémiptères de la famille des Pseudococcidae.
@@ -515,9 +527,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 septembre 2014)[1] et Scale.net[2] : 	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 septembre 2014) et Scale.net : 	
 Planococcus cryptus Silva et al., 1968,
 Pseudococcus citriculus Green, 1922,
 Pseudococcus spathoglottidis Lit, 1992,
@@ -555,9 +569,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Pseudcoccus cryptus comprend l'Asie du sud et du sud-est, le Moyen-Orient, l'Amérique du Sud, et en Océanie, Hawaï et Samoa[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Pseudcoccus cryptus comprend l'Asie du sud et du sud-est, le Moyen-Orient, l'Amérique du Sud, et en Océanie, Hawaï et Samoa.
 </t>
         </is>
       </c>
@@ -586,9 +602,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cochenille est utilisée depuis l'Antiquité pour obtenir des beaux rouges et violets. En effet, en écrasant les taches blanches on obtient une teinte rouge. Cette teinture était déjà utilisée chez les Hébreux et est utilisée pour les tissus de luxe avec la pourpre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cochenille est utilisée depuis l'Antiquité pour obtenir des beaux rouges et violets. En effet, en écrasant les taches blanches on obtient une teinte rouge. Cette teinture était déjà utilisée chez les Hébreux et est utilisée pour les tissus de luxe avec la pourpre.
 </t>
         </is>
       </c>
